--- a/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
+++ b/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="8_{097A3A41-E921-438D-94B4-5DA0CB2BF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F9C6ADA-3025-4FD5-A5E7-DDA98A0F4A01}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
+++ b/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/infografiken/Inflation/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{097A3A41-E921-438D-94B4-5DA0CB2BF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F9C6ADA-3025-4FD5-A5E7-DDA98A0F4A01}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{097A3A41-E921-438D-94B4-5DA0CB2BF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0654270-0155-42F4-BDD8-1839BFA1C08E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,9 +944,6 @@
     <t>Wohnungsmieten</t>
   </si>
   <si>
-    <t>Laufende Kosten für Autos, Töffs und Velos</t>
-  </si>
-  <si>
     <t>Wein</t>
   </si>
   <si>
@@ -1110,6 +1107,9 @@
   </si>
   <si>
     <t>Autos, Töffs und Velos (Kauf)</t>
+  </si>
+  <si>
+    <t>Autos, Töffs und Velos (laufende Kosten)</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
@@ -1584,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -1626,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
         <v>113</v>
@@ -1668,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
         <v>115</v>
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
         <v>116</v>
@@ -1696,7 +1696,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>117</v>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -1724,7 +1724,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
         <v>119</v>
@@ -1766,7 +1766,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
         <v>122</v>
@@ -1780,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
@@ -1794,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
@@ -1808,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>125</v>
@@ -1864,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
         <v>129</v>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
         <v>130</v>
@@ -1892,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -1962,7 +1962,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>136</v>
@@ -1976,7 +1976,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>137</v>
@@ -1990,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
         <v>138</v>
@@ -2004,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
         <v>139</v>
@@ -2018,7 +2018,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s">
         <v>140</v>
@@ -2032,7 +2032,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s">
         <v>141</v>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
         <v>142</v>
@@ -2074,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C42" t="s">
         <v>144</v>
@@ -2088,7 +2088,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
         <v>145</v>
@@ -2116,7 +2116,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" t="s">
         <v>147</v>
@@ -2144,7 +2144,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" t="s">
         <v>149</v>
@@ -2172,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C49" t="s">
         <v>151</v>
@@ -2186,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C50" t="s">
         <v>152</v>
@@ -2200,7 +2200,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s">
         <v>153</v>
@@ -2228,7 +2228,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C53" t="s">
         <v>155</v>
@@ -2298,7 +2298,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
@@ -2312,7 +2312,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C59" t="s">
         <v>161</v>
@@ -2326,7 +2326,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C60" t="s">
         <v>162</v>
@@ -2340,7 +2340,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C61" t="s">
         <v>163</v>
@@ -2354,7 +2354,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C62" t="s">
         <v>164</v>
@@ -2368,7 +2368,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
@@ -2396,7 +2396,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s">
         <v>166</v>
@@ -2410,7 +2410,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C66" t="s">
         <v>167</v>
@@ -2424,7 +2424,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C67" t="s">
         <v>168</v>
@@ -2438,7 +2438,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
         <v>169</v>
@@ -2452,7 +2452,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C69" t="s">
         <v>170</v>
@@ -2522,7 +2522,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" t="s">
         <v>175</v>
@@ -2536,7 +2536,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
         <v>176</v>
@@ -2592,7 +2592,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C79" t="s">
         <v>180</v>
@@ -2662,7 +2662,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C84" t="s">
         <v>185</v>
@@ -2732,7 +2732,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
         <v>190</v>
@@ -2802,7 +2802,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
         <v>195</v>
@@ -2886,7 +2886,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C100" t="s">
         <v>201</v>
@@ -2900,7 +2900,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C101" t="s">
         <v>202</v>

--- a/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
+++ b/Inflation/Daten/Inflation_ListeKategorien_Stufe4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/infografiken/Inflation/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{097A3A41-E921-438D-94B4-5DA0CB2BF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0654270-0155-42F4-BDD8-1839BFA1C08E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{097A3A41-E921-438D-94B4-5DA0CB2BF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A87FF44-19E6-4A13-86C1-AF9F7A760C36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,12 +1133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1153,10 +1159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1473,15 +1480,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D73" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" customWidth="1"/>
     <col min="5" max="5" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.5703125" customWidth="1"/>
@@ -1519,9 +1526,11 @@
       <c r="C2" t="s">
         <v>104</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" t="s">
         <v>204</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1533,9 +1542,11 @@
       <c r="C3" t="s">
         <v>105</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
         <v>205</v>
       </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1547,9 +1558,11 @@
       <c r="C4" t="s">
         <v>106</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" t="s">
         <v>206</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1561,9 +1574,11 @@
       <c r="C5" t="s">
         <v>107</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" t="s">
         <v>207</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1575,9 +1590,11 @@
       <c r="C6" t="s">
         <v>108</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>208</v>
       </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1589,9 +1606,11 @@
       <c r="C7" t="s">
         <v>109</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>209</v>
       </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1603,9 +1622,11 @@
       <c r="C8" t="s">
         <v>110</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="E8" t="s">
         <v>210</v>
       </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1617,9 +1638,11 @@
       <c r="C9" t="s">
         <v>111</v>
       </c>
+      <c r="D9" s="3"/>
       <c r="E9" t="s">
         <v>211</v>
       </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1631,9 +1654,11 @@
       <c r="C10" t="s">
         <v>112</v>
       </c>
+      <c r="D10" s="3"/>
       <c r="E10" t="s">
         <v>212</v>
       </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1645,9 +1670,11 @@
       <c r="C11" t="s">
         <v>113</v>
       </c>
+      <c r="D11" s="3"/>
       <c r="E11" t="s">
         <v>213</v>
       </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1659,9 +1686,11 @@
       <c r="C12" t="s">
         <v>114</v>
       </c>
+      <c r="D12" s="3"/>
       <c r="E12" t="s">
         <v>214</v>
       </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1673,9 +1702,11 @@
       <c r="C13" t="s">
         <v>115</v>
       </c>
+      <c r="D13" s="3"/>
       <c r="E13" t="s">
         <v>215</v>
       </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1687,9 +1718,11 @@
       <c r="C14" t="s">
         <v>116</v>
       </c>
+      <c r="D14" s="3"/>
       <c r="E14" t="s">
         <v>216</v>
       </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1701,9 +1734,11 @@
       <c r="C15" t="s">
         <v>117</v>
       </c>
+      <c r="D15" s="3"/>
       <c r="E15" t="s">
         <v>217</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1715,11 +1750,13 @@
       <c r="C16" t="s">
         <v>118</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="E16" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1729,11 +1766,13 @@
       <c r="C17" t="s">
         <v>119</v>
       </c>
+      <c r="D17" s="3"/>
       <c r="E17" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1743,11 +1782,13 @@
       <c r="C18" t="s">
         <v>120</v>
       </c>
+      <c r="D18" s="3"/>
       <c r="E18" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1757,11 +1798,13 @@
       <c r="C19" t="s">
         <v>121</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1771,11 +1814,13 @@
       <c r="C20" t="s">
         <v>122</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1785,11 +1830,13 @@
       <c r="C21" t="s">
         <v>123</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1799,11 +1846,13 @@
       <c r="C22" t="s">
         <v>124</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1813,11 +1862,13 @@
       <c r="C23" t="s">
         <v>125</v>
       </c>
+      <c r="D23" s="3"/>
       <c r="E23" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1827,11 +1878,13 @@
       <c r="C24" t="s">
         <v>126</v>
       </c>
+      <c r="D24" s="3"/>
       <c r="E24" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1841,11 +1894,13 @@
       <c r="C25" t="s">
         <v>127</v>
       </c>
+      <c r="D25" s="3"/>
       <c r="E25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1910,13 @@
       <c r="C26" t="s">
         <v>128</v>
       </c>
+      <c r="D26" s="3"/>
       <c r="E26" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1869,11 +1926,13 @@
       <c r="C27" t="s">
         <v>129</v>
       </c>
+      <c r="D27" s="3"/>
       <c r="E27" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1883,11 +1942,13 @@
       <c r="C28" t="s">
         <v>130</v>
       </c>
+      <c r="D28" s="3"/>
       <c r="E28" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1897,11 +1958,13 @@
       <c r="C29" t="s">
         <v>131</v>
       </c>
+      <c r="D29" s="3"/>
       <c r="E29" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1911,11 +1974,13 @@
       <c r="C30" t="s">
         <v>132</v>
       </c>
+      <c r="D30" s="3"/>
       <c r="E30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1925,11 +1990,13 @@
       <c r="C31" t="s">
         <v>133</v>
       </c>
+      <c r="D31" s="3"/>
       <c r="E31" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1939,11 +2006,13 @@
       <c r="C32" t="s">
         <v>134</v>
       </c>
+      <c r="D32" s="3"/>
       <c r="E32" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1953,11 +2022,13 @@
       <c r="C33" t="s">
         <v>135</v>
       </c>
+      <c r="D33" s="3"/>
       <c r="E33" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1967,11 +2038,13 @@
       <c r="C34" t="s">
         <v>136</v>
       </c>
+      <c r="D34" s="3"/>
       <c r="E34" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1981,11 +2054,13 @@
       <c r="C35" t="s">
         <v>137</v>
       </c>
+      <c r="D35" s="3"/>
       <c r="E35" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1995,11 +2070,13 @@
       <c r="C36" t="s">
         <v>138</v>
       </c>
+      <c r="D36" s="3"/>
       <c r="E36" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2009,11 +2086,13 @@
       <c r="C37" t="s">
         <v>139</v>
       </c>
+      <c r="D37" s="3"/>
       <c r="E37" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2023,11 +2102,13 @@
       <c r="C38" t="s">
         <v>140</v>
       </c>
+      <c r="D38" s="3"/>
       <c r="E38" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2037,11 +2118,13 @@
       <c r="C39" t="s">
         <v>141</v>
       </c>
+      <c r="D39" s="3"/>
       <c r="E39" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2051,11 +2134,13 @@
       <c r="C40" t="s">
         <v>142</v>
       </c>
+      <c r="D40" s="3"/>
       <c r="E40" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2065,11 +2150,13 @@
       <c r="C41" t="s">
         <v>143</v>
       </c>
+      <c r="D41" s="3"/>
       <c r="E41" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2079,11 +2166,13 @@
       <c r="C42" t="s">
         <v>144</v>
       </c>
+      <c r="D42" s="3"/>
       <c r="E42" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2093,11 +2182,13 @@
       <c r="C43" t="s">
         <v>145</v>
       </c>
+      <c r="D43" s="3"/>
       <c r="E43" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2107,11 +2198,13 @@
       <c r="C44" t="s">
         <v>146</v>
       </c>
+      <c r="D44" s="3"/>
       <c r="E44" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2121,11 +2214,13 @@
       <c r="C45" t="s">
         <v>147</v>
       </c>
+      <c r="D45" s="3"/>
       <c r="E45" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2135,11 +2230,13 @@
       <c r="C46" t="s">
         <v>148</v>
       </c>
+      <c r="D46" s="3"/>
       <c r="E46" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2149,11 +2246,13 @@
       <c r="C47" t="s">
         <v>149</v>
       </c>
+      <c r="D47" s="3"/>
       <c r="E47" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2163,11 +2262,13 @@
       <c r="C48" t="s">
         <v>150</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2177,11 +2278,13 @@
       <c r="C49" t="s">
         <v>151</v>
       </c>
+      <c r="D49" s="3"/>
       <c r="E49" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2191,11 +2294,13 @@
       <c r="C50" t="s">
         <v>152</v>
       </c>
+      <c r="D50" s="3"/>
       <c r="E50" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2205,11 +2310,13 @@
       <c r="C51" t="s">
         <v>153</v>
       </c>
+      <c r="D51" s="3"/>
       <c r="E51" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2219,11 +2326,13 @@
       <c r="C52" t="s">
         <v>154</v>
       </c>
+      <c r="D52" s="3"/>
       <c r="E52" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2233,11 +2342,13 @@
       <c r="C53" t="s">
         <v>155</v>
       </c>
+      <c r="D53" s="3"/>
       <c r="E53" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2247,11 +2358,13 @@
       <c r="C54" t="s">
         <v>156</v>
       </c>
+      <c r="D54" s="3"/>
       <c r="E54" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2261,11 +2374,13 @@
       <c r="C55" t="s">
         <v>157</v>
       </c>
+      <c r="D55" s="3"/>
       <c r="E55" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2275,11 +2390,13 @@
       <c r="C56" t="s">
         <v>158</v>
       </c>
+      <c r="D56" s="3"/>
       <c r="E56" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2289,11 +2406,13 @@
       <c r="C57" t="s">
         <v>159</v>
       </c>
+      <c r="D57" s="3"/>
       <c r="E57" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2303,11 +2422,13 @@
       <c r="C58" t="s">
         <v>160</v>
       </c>
+      <c r="D58" s="3"/>
       <c r="E58" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2317,11 +2438,13 @@
       <c r="C59" t="s">
         <v>161</v>
       </c>
+      <c r="D59" s="3"/>
       <c r="E59" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2331,11 +2454,13 @@
       <c r="C60" t="s">
         <v>162</v>
       </c>
+      <c r="D60" s="3"/>
       <c r="E60" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2345,11 +2470,13 @@
       <c r="C61" t="s">
         <v>163</v>
       </c>
+      <c r="D61" s="3"/>
       <c r="E61" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2359,11 +2486,13 @@
       <c r="C62" t="s">
         <v>164</v>
       </c>
+      <c r="D62" s="3"/>
       <c r="E62" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2373,11 +2502,13 @@
       <c r="C63" t="s">
         <v>165</v>
       </c>
+      <c r="D63" s="3"/>
       <c r="E63" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2387,11 +2518,13 @@
       <c r="C64" t="s">
         <v>65</v>
       </c>
+      <c r="D64" s="3"/>
       <c r="E64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2401,11 +2534,13 @@
       <c r="C65" t="s">
         <v>166</v>
       </c>
+      <c r="D65" s="3"/>
       <c r="E65" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2415,11 +2550,13 @@
       <c r="C66" t="s">
         <v>167</v>
       </c>
+      <c r="D66" s="3"/>
       <c r="E66" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2429,11 +2566,13 @@
       <c r="C67" t="s">
         <v>168</v>
       </c>
+      <c r="D67" s="3"/>
       <c r="E67" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2443,11 +2582,13 @@
       <c r="C68" t="s">
         <v>169</v>
       </c>
+      <c r="D68" s="3"/>
       <c r="E68" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2457,11 +2598,13 @@
       <c r="C69" t="s">
         <v>170</v>
       </c>
+      <c r="D69" s="3"/>
       <c r="E69" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2471,11 +2614,13 @@
       <c r="C70" t="s">
         <v>171</v>
       </c>
+      <c r="D70" s="3"/>
       <c r="E70" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2485,11 +2630,13 @@
       <c r="C71" t="s">
         <v>172</v>
       </c>
+      <c r="D71" s="3"/>
       <c r="E71" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2499,11 +2646,13 @@
       <c r="C72" t="s">
         <v>173</v>
       </c>
+      <c r="D72" s="3"/>
       <c r="E72" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2513,11 +2662,13 @@
       <c r="C73" t="s">
         <v>174</v>
       </c>
+      <c r="D73" s="3"/>
       <c r="E73" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2527,11 +2678,13 @@
       <c r="C74" t="s">
         <v>175</v>
       </c>
+      <c r="D74" s="3"/>
       <c r="E74" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2541,11 +2694,13 @@
       <c r="C75" t="s">
         <v>176</v>
       </c>
+      <c r="D75" s="3"/>
       <c r="E75" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2555,11 +2710,13 @@
       <c r="C76" t="s">
         <v>177</v>
       </c>
+      <c r="D76" s="3"/>
       <c r="E76" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2569,11 +2726,13 @@
       <c r="C77" t="s">
         <v>178</v>
       </c>
+      <c r="D77" s="3"/>
       <c r="E77" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2583,11 +2742,13 @@
       <c r="C78" t="s">
         <v>179</v>
       </c>
+      <c r="D78" s="3"/>
       <c r="E78" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2597,11 +2758,13 @@
       <c r="C79" t="s">
         <v>180</v>
       </c>
+      <c r="D79" s="3"/>
       <c r="E79" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2611,11 +2774,13 @@
       <c r="C80" t="s">
         <v>181</v>
       </c>
+      <c r="D80" s="3"/>
       <c r="E80" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2625,11 +2790,13 @@
       <c r="C81" t="s">
         <v>182</v>
       </c>
+      <c r="D81" s="3"/>
       <c r="E81" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2639,11 +2806,13 @@
       <c r="C82" t="s">
         <v>183</v>
       </c>
+      <c r="D82" s="3"/>
       <c r="E82" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2653,11 +2822,13 @@
       <c r="C83" t="s">
         <v>184</v>
       </c>
+      <c r="D83" s="3"/>
       <c r="E83" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2667,11 +2838,13 @@
       <c r="C84" t="s">
         <v>185</v>
       </c>
+      <c r="D84" s="3"/>
       <c r="E84" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2681,11 +2854,13 @@
       <c r="C85" t="s">
         <v>186</v>
       </c>
+      <c r="D85" s="3"/>
       <c r="E85" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2695,11 +2870,13 @@
       <c r="C86" t="s">
         <v>187</v>
       </c>
+      <c r="D86" s="3"/>
       <c r="E86" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2709,11 +2886,13 @@
       <c r="C87" t="s">
         <v>188</v>
       </c>
+      <c r="D87" s="3"/>
       <c r="E87" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2723,11 +2902,13 @@
       <c r="C88" t="s">
         <v>189</v>
       </c>
+      <c r="D88" s="3"/>
       <c r="E88" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2737,11 +2918,13 @@
       <c r="C89" t="s">
         <v>190</v>
       </c>
+      <c r="D89" s="3"/>
       <c r="E89" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2751,11 +2934,13 @@
       <c r="C90" t="s">
         <v>191</v>
       </c>
+      <c r="D90" s="3"/>
       <c r="E90" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2765,11 +2950,13 @@
       <c r="C91" t="s">
         <v>192</v>
       </c>
+      <c r="D91" s="3"/>
       <c r="E91" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2779,11 +2966,13 @@
       <c r="C92" t="s">
         <v>193</v>
       </c>
+      <c r="D92" s="3"/>
       <c r="E92" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2793,11 +2982,13 @@
       <c r="C93" t="s">
         <v>194</v>
       </c>
+      <c r="D93" s="3"/>
       <c r="E93" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2807,11 +2998,13 @@
       <c r="C94" t="s">
         <v>195</v>
       </c>
+      <c r="D94" s="3"/>
       <c r="E94" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2821,11 +3014,13 @@
       <c r="C95" t="s">
         <v>196</v>
       </c>
+      <c r="D95" s="3"/>
       <c r="E95" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2835,11 +3030,13 @@
       <c r="C96" t="s">
         <v>197</v>
       </c>
+      <c r="D96" s="3"/>
       <c r="E96" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2849,11 +3046,13 @@
       <c r="C97" t="s">
         <v>198</v>
       </c>
+      <c r="D97" s="3"/>
       <c r="E97" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2863,11 +3062,13 @@
       <c r="C98" t="s">
         <v>199</v>
       </c>
+      <c r="D98" s="3"/>
       <c r="E98" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2877,11 +3078,13 @@
       <c r="C99" t="s">
         <v>200</v>
       </c>
+      <c r="D99" s="3"/>
       <c r="E99" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2891,11 +3094,13 @@
       <c r="C100" t="s">
         <v>201</v>
       </c>
+      <c r="D100" s="3"/>
       <c r="E100" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2905,11 +3110,13 @@
       <c r="C101" t="s">
         <v>202</v>
       </c>
+      <c r="D101" s="3"/>
       <c r="E101" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2919,9 +3126,11 @@
       <c r="C102" t="s">
         <v>203</v>
       </c>
+      <c r="D102" s="3"/>
       <c r="E102" t="s">
         <v>302</v>
       </c>
+      <c r="F102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
